--- a/ykodama/ddbj_packages/excel/MIMARKS.specimen.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIMARKS.specimen.4.0.xlsx
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Unique name for each sample (used as an ID)</t>
+          <t>The sample name is a name that you choose for the sample, it works as an ID.  Each sample name must be unique in samples submitted from a submission account.</t>
         </r>
       </text>
     </comment>
@@ -41,7 +41,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Unique title for each sample</t>
+          <t>Sample title should be short and informative. Each sample title must be unique in a submission.  Examples: 1) Escherichia coli O104:H4 str. C227-11 clinical isolate 2010_333_NC-6;  2) CD8+ T cells from female TSG6-knockout BALB/c mouse;  3) Human metagenome isolated from urine of healthy female.</t>
         </r>
       </text>
     </comment>
@@ -54,7 +54,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Brief description</t>
+          <t>A brief description for the sample.</t>
         </r>
       </text>
     </comment>
@@ -67,7 +67,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Organism name in the NCBI Taxonomy database</t>
+          <t>The most descriptive organism name for this sample (to the species, if relevant) in the NCBI Taxonomy database, http://www.ncbi.nlm.nih.gov/taxonomy If it is not in the database, provide as much information about the organism as possible and the DDBJ staff apply a new organism name to NCBI Taxonomy.</t>
         </r>
       </text>
     </comment>
@@ -80,7 +80,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>NCBI Taxonomy identifier</t>
+          <t>NCBI Taxonomy identifier. This is appropriate for individual organisms, some metagenomes and environmental samples (http://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=12908&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock).  If it is not in the database, enter a tentative ID (e.g., 1). The DDBJ staff apply a new organism name to NCBI Taxonomy, and then the tentative ID is replaced by an assigned TaxID.</t>
         </r>
       </text>
     </comment>
@@ -121,7 +121,7 @@
             <family val="2"/>
           </rPr>
           <t>Organism group
-Identification of the specific individual</t>
+Identification or description of the specific individual from which this sample was obtained</t>
         </r>
       </text>
     </comment>
@@ -135,7 +135,21 @@
             <family val="2"/>
           </rPr>
           <t>Organism group
-Cultivar name</t>
+Cultivar name - cultivated variety of plant</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Organism group
+a population within a given species displaying genetically based, phenotypic traits that reflect adaptation to a local habitat, e.g., Columbia</t>
         </r>
       </text>
     </comment>
@@ -148,7 +162,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Time of sampling (eg, 2008-01-23, 2008-01)</t>
+          <t>Time of sampling (single instance or interval, eg., 2008-01-23T19:23:10, 2008-01-23, 2008-01, 2008, 1952-10-21T11:43Z/1952-10-21T17:43Z, 1952-10-21/1953-02-15, 1952-10/1953-02, 1952/1953)</t>
         </r>
       </text>
     </comment>
@@ -161,7 +175,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Descriptor of the broad ecological context of a sample</t>
+          <t>Descriptor of the broad ecological context of a sample. Examples include: desert, taiga or deciduous woodland. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
         </r>
       </text>
     </comment>
@@ -174,7 +188,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Descriptor of the local environment.</t>
+          <t>Descriptor of the local environment. Examples include: harbor, cliff, or lake. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
         </r>
       </text>
     </comment>
@@ -187,7 +201,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Material that was displaced by the sample, or material in which a sample was embedded, prior to the sampling event.</t>
+          <t>Material that was displaced by the sample, or material in which a sample was embedded, prior to the sampling event. Examples include: air, soil, or water. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
         </r>
       </text>
     </comment>
@@ -200,7 +214,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Geographical origin of the sample (eg, "Japan:Kanagawa, Hakone, Lake Ashi")</t>
+          <t xml:space="preserve">Geographical origin of the sample; use the appropriate name from the list, http://www.ddbj.nig.ac.jp/sub/country-e.html. Use a colon to separate the country or ocean from more detailed information about the location, eg "Japan:Kanagawa, Hakone, Lake Ashi" </t>
         </r>
       </text>
     </comment>
@@ -213,7 +227,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Pubmed ID, DOI or URL of publication for isolation and growth condition specifications of the organism/material</t>
+          <t>Publication reference in the form of pubmed ID, DOI or URL for isolation and growth condition specifications of the organism/material</t>
         </r>
       </text>
     </comment>
@@ -226,7 +240,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The geographical coordinates of the location in decimal degrees latitude and longitude (eg, 47.94 N 28.12 W)</t>
+          <t>The geographical coordinates of the location where the sample was collected. Specify as decimal degrees latitude and longitude in format "d[d.dddd] N|S d[dd.dddd] W|E", eg, 47.94 N 28.12 W</t>
         </r>
       </text>
     </comment>
@@ -239,7 +253,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Free-living or from host</t>
+          <t>Free-living or from host (define relationship)</t>
         </r>
       </text>
     </comment>
@@ -265,7 +279,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Describes the physical, environmental and/or local geographical source of the biological sample</t>
+          <t>Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived.</t>
         </r>
       </text>
     </comment>
@@ -330,7 +344,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>unique identifier assigned to a material sample used</t>
+          <t>unique identifier assigned to a material sample used for extracting nucleic acids, and subsequent sequencing. The identifier can refer either to the original material collected or to any derived sub-samples.</t>
         </r>
       </text>
     </comment>

--- a/ykodama/ddbj_packages/excel/MIMARKS.specimen.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIMARKS.specimen.4.0.xlsx
@@ -19,7 +19,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A13" authorId="0">
+    <comment ref="A15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -32,7 +32,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0">
+    <comment ref="B15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0">
+    <comment ref="C15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D13" authorId="0">
+    <comment ref="D15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E13" authorId="0">
+    <comment ref="E15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F13" authorId="0">
+    <comment ref="F15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G13" authorId="0">
+    <comment ref="G15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H13" authorId="0">
+    <comment ref="H15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I13" authorId="0">
+    <comment ref="I15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -139,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J13" authorId="0">
+    <comment ref="J15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -153,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K13" authorId="0">
+    <comment ref="K15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L13" authorId="0">
+    <comment ref="L15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -179,7 +179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M13" authorId="0">
+    <comment ref="M15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -192,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N13" authorId="0">
+    <comment ref="N15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -205,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O13" authorId="0">
+    <comment ref="O15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -218,7 +218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P13" authorId="0">
+    <comment ref="P15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -231,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q13" authorId="0">
+    <comment ref="Q15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -241,136 +241,6 @@
             <family val="2"/>
           </rPr>
           <t>The geographical coordinates of the location where the sample was collected. Specify as decimal degrees latitude and longitude in format "d[d.dddd] N|S d[dd.dddd] W|E", eg, 47.94 N 28.12 W</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Free-living or from host (define relationship)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Plasmids that have significance phenotypic consequence</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Aerobic or anaerobic</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Method or device employed for collecting sample</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Processing applied to the sample during or after isolation</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Amount or size of sample (volume, mass or area) that was collected</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>unique identifier assigned to a material sample used for extracting nucleic acids, and subsequent sequencing. The identifier can refer either to the original material collected or to any derived sub-samples.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Information about the genetic distinctness of the lineage (eg., biovar, serovar)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Feeding position in food chain (eg., chemolithotroph)</t>
         </r>
       </text>
     </comment>
@@ -379,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t xml:space="preserve"># This is a submission template for batch deposit of 'MIMARKS: specimen; version 4.0' samples to the DDBJ BioSample database (http://trace.ddbj.nig.ac.jp/biosample)._x000D_
 </t>
@@ -486,36 +356,6 @@
   </si>
   <si>
     <t>lat_lon</t>
-  </si>
-  <si>
-    <t>biotic_relationship</t>
-  </si>
-  <si>
-    <t>extrachrom_elements</t>
-  </si>
-  <si>
-    <t>isolation_source</t>
-  </si>
-  <si>
-    <t>rel_to_oxygen</t>
-  </si>
-  <si>
-    <t>samp_collect_device</t>
-  </si>
-  <si>
-    <t>samp_mat_process</t>
-  </si>
-  <si>
-    <t>samp_size</t>
-  </si>
-  <si>
-    <t>source_material_id</t>
-  </si>
-  <si>
-    <t>subspecf_gen_lin</t>
-  </si>
-  <si>
-    <t>trophic_level</t>
   </si>
 </sst>
 </file>
@@ -924,7 +764,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GS14"/>
+  <dimension ref="A1:GS15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -933,152 +773,127 @@
     <col min="1" max="201" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="3" customFormat="1">
+    <row r="3" spans="1:17" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="4" customFormat="1">
+    <row r="4" spans="1:17" s="4" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="5" customFormat="1">
+    <row r="5" spans="1:17" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:17">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:17">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:17">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:17">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:17">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:17">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:17">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
-      <c r="A13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="S13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="T13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="U13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="V13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="W13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="X13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA13" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
+    <row r="13" spans="1:17">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/ykodama/ddbj_packages/excel/MIMARKS.specimen.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIMARKS.specimen.4.0.xlsx
@@ -362,6 +362,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="@"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -446,7 +449,7 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">

--- a/ykodama/ddbj_packages/excel/MIMARKS.specimen.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIMARKS.specimen.4.0.xlsx
@@ -244,12 +244,142 @@
         </r>
       </text>
     </comment>
+    <comment ref="R15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Free-living or from host (define relationship)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Plasmids that have significance phenotypic consequence</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Aerobic or anaerobic</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Method or device employed for collecting sample</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Processing applied to the sample during or after isolation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Amount or size of sample (volume, mass or area) that was collected</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>unique identifier assigned to a material sample used for extracting nucleic acids, and subsequent sequencing. The identifier can refer either to the original material collected or to any derived sub-samples.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Information about the genetic distinctness of the lineage (eg., biovar, serovar)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Feeding position in food chain (eg., chemolithotroph)</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve"># This is a submission template for batch deposit of 'MIMARKS: specimen; version 4.0' samples to the DDBJ BioSample database (http://trace.ddbj.nig.ac.jp/biosample)._x000D_
 </t>
@@ -356,6 +486,36 @@
   </si>
   <si>
     <t>lat_lon</t>
+  </si>
+  <si>
+    <t>biotic_relationship</t>
+  </si>
+  <si>
+    <t>extrachrom_elements</t>
+  </si>
+  <si>
+    <t>isolation_source</t>
+  </si>
+  <si>
+    <t>rel_to_oxygen</t>
+  </si>
+  <si>
+    <t>samp_collect_device</t>
+  </si>
+  <si>
+    <t>samp_mat_process</t>
+  </si>
+  <si>
+    <t>samp_size</t>
+  </si>
+  <si>
+    <t>source_material_id</t>
+  </si>
+  <si>
+    <t>subspecf_gen_lin</t>
+  </si>
+  <si>
+    <t>trophic_level</t>
   </si>
 </sst>
 </file>
@@ -776,77 +936,77 @@
     <col min="1" max="201" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:27">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:27">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="3" customFormat="1">
+    <row r="3" spans="1:27" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="4" customFormat="1">
+    <row r="4" spans="1:27" s="4" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="5" customFormat="1">
+    <row r="5" spans="1:27" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:27">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:27">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:27">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:27">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:27">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:27">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:27">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:27">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:27">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:27">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -897,6 +1057,36 @@
       </c>
       <c r="Q15" s="7" t="s">
         <v>30</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="V15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="W15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="X15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA15" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/ykodama/ddbj_packages/excel/MIMARKS.specimen.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIMARKS.specimen.4.0.xlsx
@@ -357,11 +357,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Identifier for the physical specimen. Use format: "[&lt;institution-code&gt;:[&lt;collection-code&gt;:]]&lt;specimen_id&gt;", eg, "UAM:Mamm:52179". Intended as a reference to the physical specimen that remains after it was analyzed. If the specimen was destroyed in the process of analysis, electronic images (e-vouchers) are an adequate substitute for a physical voucher specimen. Ideally the specimens will be deposited in a curated museum, herbarium, or frozen tissue collection, but often they will remain in a personal or laboratory collection for some time before they are deposited in a curated collection. There are three forms of specimen_voucher qualifiers. If the text of the qualifier includes one or more colons it is a 'structured voucher'. Structured vouchers include institution-codes (and optional collection-codes) taken from a controlled vocabulary maintained by the INSDC that denotes the museum or herbarium collection where the specimen resides, please visit the INSDC website, http://www.insdc.org/controlled-vocabulary-specimenvoucher-qualifier</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Information about the genetic distinctness of the lineage (eg., biovar, serovar)</t>
         </r>
       </text>
     </comment>
-    <comment ref="AA15" authorId="0">
+    <comment ref="AB15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -379,7 +392,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t xml:space="preserve"># This is a submission template for batch deposit of 'MIMARKS: specimen; version 4.0' samples to the DDBJ BioSample database (http://trace.ddbj.nig.ac.jp/biosample)._x000D_
 </t>
@@ -510,6 +523,9 @@
   </si>
   <si>
     <t>source_material_id</t>
+  </si>
+  <si>
+    <t>specimen_voucher</t>
   </si>
   <si>
     <t>subspecf_gen_lin</t>
@@ -936,77 +952,77 @@
     <col min="1" max="201" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:28">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="3" customFormat="1">
+    <row r="3" spans="1:28" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="4" customFormat="1">
+    <row r="4" spans="1:28" s="4" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="5" customFormat="1">
+    <row r="5" spans="1:28" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:28">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:28">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:28">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:28">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:28">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:28">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:28">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:28">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:28">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:28">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -1087,6 +1103,9 @@
       </c>
       <c r="AA15" s="8" t="s">
         <v>40</v>
+      </c>
+      <c r="AB15" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
